--- a/Reports/DDR_3_compare.xlsx
+++ b/Reports/DDR_3_compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariazimmermann/GitHub/ppc_skripts_reports/Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7434DA49-7443-8E4E-A1C2-528E2DF10F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BE5EBC-C1C8-BC45-9BB8-AC9054C6E1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16840" xr2:uid="{7D1E31C0-CFF6-4647-814B-408045909A14}"/>
   </bookViews>
@@ -35,12 +35,59 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>nD_acet_measured</t>
+  </si>
+  <si>
+    <t>rho_acet_measured_1</t>
+  </si>
+  <si>
+    <t>rho_acet_measured_2</t>
+  </si>
+  <si>
+    <t>rho_acet_measured_1_error</t>
+  </si>
+  <si>
+    <t>nD_nhex_measured</t>
+  </si>
+  <si>
+    <t>rho_nhex_measured_1</t>
+  </si>
+  <si>
+    <t>rho_nhex_measured_2</t>
+  </si>
+  <si>
+    <t>rho_nhex_measured_1_error</t>
+  </si>
+  <si>
+    <t>nD_acet_meister</t>
+  </si>
+  <si>
+    <t>rho_acet_meister</t>
+  </si>
+  <si>
+    <t>rho_nhex_meister</t>
+  </si>
+  <si>
+    <t>nD_nhex_meister</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -54,10 +101,41 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -66,8 +144,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -382,12 +465,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C5A1F4-768F-2648-B4F8-A27E49AC16EA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" style="1"/>
+    <col min="3" max="3" width="25.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" style="4"/>
+    <col min="5" max="5" width="20.83203125" style="1"/>
+    <col min="7" max="7" width="26.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" style="3"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="23.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" customWidth="1"/>
+    <col min="12" max="12" width="23.1640625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1.35867</v>
+      </c>
+      <c r="B2">
+        <v>0.79039999999999999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.7903</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.3750599999999999</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.65720000000000001</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.65939999999999999</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1.3588</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.78990000000000005</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1.3751</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.6603</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>